--- a/Aplicaciones Web/PROY UN1.xlsx
+++ b/Aplicaciones Web/PROY UN1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mkey\utags\2019\Septiembre_Diciembre\Aplicaciones Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkey\Desktop\Septiembre_Diciembre\Septiembre_Diciembre\Aplicaciones Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E97ABB-546E-4225-99CD-C9C4986523FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A05CEBD3-E67A-4263-835B-9E62E1197324}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="entegas JS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
   <si>
     <t>CALZADA RODRIGUEZ BRYAN ALEXIS</t>
   </si>
@@ -144,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +172,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -311,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -346,6 +351,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,11 +667,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1319C71-B573-4642-81B5-8797850AF089}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,11 +862,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865392BD-86E1-4C41-886E-F9EB10C13B61}">
-  <dimension ref="C2:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +874,7 @@
     <col min="3" max="3" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>32</v>
       </c>
@@ -880,7 +888,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="C3" s="15" t="s">
         <v>23</v>
       </c>
@@ -894,7 +905,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
       <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
@@ -904,8 +918,14 @@
       <c r="E4" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
       <c r="C5" s="15" t="s">
         <v>11</v>
       </c>
@@ -916,7 +936,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
       <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
@@ -927,7 +950,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
       <c r="C7" s="15" t="s">
         <v>15</v>
       </c>
@@ -938,7 +964,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
       <c r="C8" s="15" t="s">
         <v>21</v>
       </c>
@@ -949,7 +978,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7</v>
+      </c>
       <c r="C9" s="15" t="s">
         <v>7</v>
       </c>
@@ -960,7 +992,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
       <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
@@ -971,7 +1006,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>9</v>
+      </c>
       <c r="C11" s="15" t="s">
         <v>10</v>
       </c>
@@ -982,7 +1020,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>10</v>
+      </c>
       <c r="C12" s="19" t="s">
         <v>17</v>
       </c>
@@ -993,7 +1034,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>11</v>
+      </c>
       <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
@@ -1004,7 +1048,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>12</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1012,6 +1059,21 @@
         <v>34</v>
       </c>
       <c r="E14" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Aplicaciones Web/PROY UN1.xlsx
+++ b/Aplicaciones Web/PROY UN1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
   <si>
     <t>CALZADA RODRIGUEZ BRYAN ALEXIS</t>
   </si>
@@ -671,7 +671,7 @@
   <dimension ref="C1:F26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +866,7 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1048,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>12</v>
       </c>
@@ -1062,7 +1062,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>

--- a/Aplicaciones Web/PROY UN1.xlsx
+++ b/Aplicaciones Web/PROY UN1.xlsx
@@ -866,7 +866,7 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,6 +1072,7 @@
       <c r="E15" s="17" t="s">
         <v>34</v>
       </c>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16">

--- a/Aplicaciones Web/PROY UN1.xlsx
+++ b/Aplicaciones Web/PROY UN1.xlsx
@@ -1072,7 +1072,7 @@
       <c r="E15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16">
